--- a/experiments/coselog-wabo/data/filtered-log-v1/Mismatch Pattern Analysis Results.xlsx
+++ b/experiments/coselog-wabo/data/filtered-log-v1/Mismatch Pattern Analysis Results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ONUR\THESIS\ECLIPSE\thesis-tex\5_results_discussions\coselog-wabo\data\filtered-log-v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ONUR\THESIS\ECLIPSE\thesis-test\experiments\coselog-wabo\data\filtered-log-v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="k2-manual" sheetId="2" r:id="rId2"/>
+    <sheet name="k3-manual" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>Graph-Edit Similarity</t>
   </si>
@@ -130,6 +131,12 @@
   </si>
   <si>
     <t>10-&gt;20</t>
+  </si>
+  <si>
+    <t>3 vs 2 &amp; 4</t>
+  </si>
+  <si>
+    <t>5 vs 2 &amp; 4</t>
   </si>
 </sst>
 </file>
@@ -415,8 +422,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227946000"/>
-        <c:axId val="227946392"/>
+        <c:axId val="131709288"/>
+        <c:axId val="131710072"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -546,11 +553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279871472"/>
-        <c:axId val="227946784"/>
+        <c:axId val="131710856"/>
+        <c:axId val="131708504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227946000"/>
+        <c:axId val="131709288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +600,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227946392"/>
+        <c:crossAx val="131710072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -601,7 +608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227946392"/>
+        <c:axId val="131710072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +661,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -715,12 +721,12 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227946000"/>
+        <c:crossAx val="131709288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227946784"/>
+        <c:axId val="131708504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +758,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -813,12 +818,12 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279871472"/>
+        <c:crossAx val="131710856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="279871472"/>
+        <c:axId val="131710856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227946784"/>
+        <c:crossAx val="131708504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -845,7 +850,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1504,11 +1508,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="279872256"/>
-        <c:axId val="279872648"/>
+        <c:axId val="131707720"/>
+        <c:axId val="233798424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="279872256"/>
+        <c:axId val="131707720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,7 +1555,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279872648"/>
+        <c:crossAx val="233798424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1559,7 +1563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279872648"/>
+        <c:axId val="233798424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1614,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279872256"/>
+        <c:crossAx val="131707720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1624,7 +1628,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3751,8 +3754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3847,4 +3850,208 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="2">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <f>SUM(C10:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:E16" si="0">SUM(D10:D15)</f>
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <f>SUM(I10:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" ref="J16" si="1">SUM(J10:J15)</f>
+        <v>24</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" ref="K16" si="2">SUM(K10:K15)</f>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiments/coselog-wabo/data/filtered-log-v1/Mismatch Pattern Analysis Results.xlsx
+++ b/experiments/coselog-wabo/data/filtered-log-v1/Mismatch Pattern Analysis Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,8 +422,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131709288"/>
-        <c:axId val="131710072"/>
+        <c:axId val="235324168"/>
+        <c:axId val="235324552"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -553,11 +553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131710856"/>
-        <c:axId val="131708504"/>
+        <c:axId val="235329152"/>
+        <c:axId val="235328768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131709288"/>
+        <c:axId val="235324168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +600,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131710072"/>
+        <c:crossAx val="235324552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,7 +608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131710072"/>
+        <c:axId val="235324552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,6 +661,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -721,12 +722,12 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131709288"/>
+        <c:crossAx val="235324168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131708504"/>
+        <c:axId val="235328768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,6 +759,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -818,12 +820,12 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131710856"/>
+        <c:crossAx val="235329152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="131710856"/>
+        <c:axId val="235329152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131708504"/>
+        <c:crossAx val="235328768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,6 +852,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1103,34 +1106,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$53:$L$53</c:f>
+              <c:f>Sheet1!$C$46:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1508,11 +1487,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="131707720"/>
-        <c:axId val="233798424"/>
+        <c:axId val="235495512"/>
+        <c:axId val="235495896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131707720"/>
+        <c:axId val="235495512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1534,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233798424"/>
+        <c:crossAx val="235495896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1563,7 +1542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233798424"/>
+        <c:axId val="235495896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1593,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131707720"/>
+        <c:crossAx val="235495512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1628,6 +1607,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3123,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:C51"/>
+    <sheetView tabSelected="1" topLeftCell="P26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,7 +3836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>

--- a/experiments/coselog-wabo/data/filtered-log-v1/Mismatch Pattern Analysis Results.xlsx
+++ b/experiments/coselog-wabo/data/filtered-log-v1/Mismatch Pattern Analysis Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ONUR\THESIS\ECLIPSE\thesis-test\experiments\coselog-wabo\data\filtered-log-v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I313226\Documents\thesis-test\experiments\coselog-wabo\data\filtered-log-v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -422,8 +422,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="235324168"/>
-        <c:axId val="235324552"/>
+        <c:axId val="188057624"/>
+        <c:axId val="188058008"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -553,11 +553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="235329152"/>
-        <c:axId val="235328768"/>
+        <c:axId val="188063632"/>
+        <c:axId val="188063248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="235324168"/>
+        <c:axId val="188057624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +600,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235324552"/>
+        <c:crossAx val="188058008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,7 +608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235324552"/>
+        <c:axId val="188058008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,12 +722,12 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235324168"/>
+        <c:crossAx val="188057624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235328768"/>
+        <c:axId val="188063248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,12 +820,12 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235329152"/>
+        <c:crossAx val="188063632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="235329152"/>
+        <c:axId val="188063632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235328768"/>
+        <c:crossAx val="188063248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1487,11 +1487,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="235495512"/>
-        <c:axId val="235495896"/>
+        <c:axId val="188186760"/>
+        <c:axId val="188189192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235495512"/>
+        <c:axId val="188186760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1534,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235495896"/>
+        <c:crossAx val="188189192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1542,7 +1542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235495896"/>
+        <c:axId val="188189192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +1593,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235495512"/>
+        <c:crossAx val="188186760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,6 +1662,669 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200" b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph-Edit Similarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$C$5:$L$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v> #1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v> #1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v> #1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v> #1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> #2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v> #2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v> #2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v> #3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v> #3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v> #4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>vs #2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>vs #3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>vs #4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>vs #5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>vs #3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>vs #4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>vs #5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>vs #4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>vs #5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>vs #5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37824999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44325000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47624999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="231818584"/>
+        <c:axId val="231923448"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Mismatch Patterns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$C$5:$H$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v> #1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v> #1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v> #1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v> #1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> #2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v> #2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>vs #2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>vs #3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>vs #4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>vs #5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>vs #3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>vs #4</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="231924232"/>
+        <c:axId val="231923840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="231818584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231923448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="231923448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Graph-Edit Similarity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="tr-TR" sz="1600" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="tr-TR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231818584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="231923840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR" sz="1400" b="1"/>
+                  <a:t># Mismatch Patterns</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="tr-TR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231924232"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="231924232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="231923840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="tr-TR"/>
     </a:p>
@@ -1754,6 +2417,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2420,6 +3123,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2830,6 +4049,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>500744</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38781</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3103,8 +4354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="Y12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AR40" sqref="AR40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
